--- a/train_data.xlsx
+++ b/train_data.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -134,7 +136,7 @@
     <t>中央财政补贴</t>
   </si>
   <si>
-    <t>当年政府债务金额（单位：亿）</t>
+    <t>当年政府债务金额</t>
   </si>
   <si>
     <t>政府年财政支出</t>
@@ -649,162 +651,161 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -858,7 +859,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -868,9 +869,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="WPS">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -878,39 +879,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4874CB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="EE822F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="F2BA02"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="75BD42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="30C0B4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="WPS">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,6 +943,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -976,171 +978,135 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="WPS">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumOff val="17500"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:hueOff val="-2520000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="phClr">
+                  <a:hueOff val="-4200000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="phClr"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="2700000" scaled="1"/>
+          </a:gradFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
+            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="phClr">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
+            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1152,15 +1118,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR7"/>
+  <dimension ref="A1:AR1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" s="1" customFormat="1" spans="1:44">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1293,27 +1259,44 @@
       <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="9:9">
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="9:9">
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="9:9">
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="9:9">
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="9:9">
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="9:9">
-      <c r="I7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/train_data.xlsx
+++ b/train_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8615"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
